--- a/test_files/test_files_2/file2_test2_excel.xlsx
+++ b/test_files/test_files_2/file2_test2_excel.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="First" sheetId="1" r:id="rId1"/>
+    <sheet name="Second" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -358,7 +358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -392,7 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
